--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aherrera\Documents\4_OSHW_Design&amp;Verif_40%\5_Covergroups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\openhw\docs\core-v-docs.ArjanB_vplan_review\verif\CV32E40P\VerificationPlan\base_instruction_set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408FDD30-97CA-4DBD-93E8-E0515ACA2F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A9C69-0786-4B65-9E50-C565A4109F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="30" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Arjan Bink</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{D820129E-B570-4DE1-A347-0F9C57AB06C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+CV32E40P does not 'fuse'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{EB5E7A8C-9B89-43FA-B00C-55946B215412}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The cycle counts for DIV, DIVU, REM, REMU are data dependent. We should trigger and check all possible cycle counts. There is an issue to get the expected cycle counts documented: https://github.com/openhwgroup/core-v-docs/issues/78</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
@@ -655,7 +713,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -718,6 +776,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -759,9 +830,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -791,17 +859,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,6 +874,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,1138 +1265,1138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="54.54296875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="72.81640625" style="2" customWidth="1"/>
-    <col min="11" max="1023" width="17" style="2"/>
-    <col min="1024" max="1024" width="9.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" style="1" customWidth="1"/>
+    <col min="11" max="1023" width="17" style="1"/>
+    <col min="1024" max="1024" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="28.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="30">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="56">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="71.25">
+      <c r="A2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="70">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="85.5">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="6" customFormat="1" ht="46.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="47.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="6" customFormat="1" ht="56">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="85.5">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="6" customFormat="1" ht="42">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="17" t="s">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="42.75">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="154">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="171">
+      <c r="A7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" ht="140">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="156.75">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="70">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15" t="s">
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="85.5">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" ht="57">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="71.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:10" s="5" customFormat="1">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" s="6" customFormat="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" s="6" customFormat="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" s="6" customFormat="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" s="6" customFormat="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="6" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="6" customFormat="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="6" customFormat="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="6" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="6" customFormat="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="6" customFormat="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="6" customFormat="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="6" customFormat="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" s="6" customFormat="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="6" customFormat="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" s="6" customFormat="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" s="6" customFormat="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" s="6" customFormat="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" s="6" customFormat="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" s="6" customFormat="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" s="6" customFormat="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" s="6" customFormat="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" s="6" customFormat="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" s="6" customFormat="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" s="6" customFormat="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" s="6" customFormat="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" s="6" customFormat="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" s="6" customFormat="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" s="6" customFormat="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" s="6" customFormat="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" s="6" customFormat="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" s="6" customFormat="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" s="6" customFormat="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" s="6" customFormat="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" s="6" customFormat="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" s="6" customFormat="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" s="6" customFormat="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" s="6" customFormat="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" s="6" customFormat="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" s="6" customFormat="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" s="6" customFormat="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" s="6" customFormat="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" s="6" customFormat="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" s="6" customFormat="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" s="6" customFormat="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" s="6" customFormat="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" s="6" customFormat="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" s="6" customFormat="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" s="6" customFormat="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" s="6" customFormat="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" s="6" customFormat="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" s="6" customFormat="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" s="6" customFormat="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" s="6" customFormat="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" s="6" customFormat="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" s="6" customFormat="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" s="6" customFormat="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" s="6" customFormat="1">
-      <c r="A79" s="7"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" s="6" customFormat="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" s="6" customFormat="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" s="6" customFormat="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" s="6" customFormat="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" s="9" customFormat="1">
-      <c r="A84" s="1" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" s="5" customFormat="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" s="5" customFormat="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" s="5" customFormat="1">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" s="5" customFormat="1">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" s="5" customFormat="1">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" s="5" customFormat="1">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" s="5" customFormat="1">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" s="5" customFormat="1">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" s="5" customFormat="1">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" s="5" customFormat="1">
+      <c r="A75" s="6"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" s="5" customFormat="1">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" s="5" customFormat="1">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" s="5" customFormat="1">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" s="5" customFormat="1">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" s="5" customFormat="1">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" s="5" customFormat="1">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" s="5" customFormat="1">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" s="5" customFormat="1">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" s="8" customFormat="1">
+      <c r="A84" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2338,6 +2409,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2380,23 +2452,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2493,51 +2565,51 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="57.36328125" customWidth="1"/>
-    <col min="4" max="4" width="92.26953125" customWidth="1"/>
-    <col min="5" max="5" width="53.36328125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="92.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
     </row>

--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32M_Extension_Instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\openhw\docs\core-v-docs.ArjanB_vplan_review\verif\CV32E40P\VerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A9C69-0786-4B65-9E50-C565A4109F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD365129-FC6C-4358-9531-7DAE65D89864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -29,55 +29,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Arjan Bink</author>
+    <author>tc={47A7F0D6-8B10-43D0-8302-EB9AF83D2A75}</author>
+    <author>tc={0E066E72-6E53-4B72-BEA1-0D3351A523A0}</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{D820129E-B570-4DE1-A347-0F9C57AB06C0}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{47A7F0D6-8B10-43D0-8302-EB9AF83D2A75}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-CV32E40P does not 'fuse'</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CV32E40P does not 'fuse'
+Reply:
+    Understood.  Feature has been stricken from the Vplan.</t>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{EB5E7A8C-9B89-43FA-B00C-55946B215412}">
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{0E066E72-6E53-4B72-BEA1-0D3351A523A0}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-The cycle counts for DIV, DIVU, REM, REMU are data dependent. We should trigger and check all possible cycle counts. There is an issue to get the expected cycle counts documented: https://github.com/openhwgroup/core-v-docs/issues/78</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The cycle counts for DIV, DIVU, REM, REMU are data dependent. We should trigger and check all possible cycle counts. There is an issue to get the expected cycle counts documented: https://github.com/openhwgroup/core-v-docs/issues/78
+Reply:
+    Thanks for the reminder on this.  Rather than do that here, I propose to create a "micro-architectue" section of the Vplan and use that to verify all of the "Pipeline Details" chapter of the User Manual, including the Multi- and Single- cycle instructions table.</t>
       </text>
     </comment>
   </commentList>
@@ -783,14 +756,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,12 +783,6 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -828,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -862,18 +830,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,6 +845,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,6 +939,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mike" id="{DDE7FACA-53EC-4778-BF47-0309545F7DDB}" userId="Mike" providerId="None"/>
+  <person displayName="Arjan Bink" id="{C7032DB6-46F7-4842-9B9D-157756460092}" userId="Arjan Bink" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,19 +1243,36 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E6" personId="{C7032DB6-46F7-4842-9B9D-157756460092}" id="{47A7F0D6-8B10-43D0-8302-EB9AF83D2A75}">
+    <text>CV32E40P does not 'fuse'</text>
+  </threadedComment>
+  <threadedComment ref="E6" dT="2020-09-17T19:28:12.14" personId="{DDE7FACA-53EC-4778-BF47-0309545F7DDB}" id="{29699F40-7D62-4E12-8E85-A2EF17E0C64E}" parentId="{47A7F0D6-8B10-43D0-8302-EB9AF83D2A75}">
+    <text>Understood.  Feature has been stricken from the Vplan.</text>
+  </threadedComment>
+  <threadedComment ref="B7" personId="{C7032DB6-46F7-4842-9B9D-157756460092}" id="{0E066E72-6E53-4B72-BEA1-0D3351A523A0}">
+    <text>The cycle counts for DIV, DIVU, REM, REMU are data dependent. We should trigger and check all possible cycle counts. There is an issue to get the expected cycle counts documented: https://github.com/openhwgroup/core-v-docs/issues/78</text>
+  </threadedComment>
+  <threadedComment ref="B7" dT="2020-09-17T19:37:25.77" personId="{DDE7FACA-53EC-4778-BF47-0309545F7DDB}" id="{4C6D0E50-C0E9-4B84-B035-3C80EF041D4F}" parentId="{0E066E72-6E53-4B72-BEA1-0D3351A523A0}">
+    <text>Thanks for the reminder on this.  Rather than do that here, I propose to create a "micro-architectue" section of the Vplan and use that to verify all of the "Pipeline Details" chapter of the User Manual, including the Multi- and Single- cycle instructions table.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="58.42578125" style="1" customWidth="1"/>
@@ -1315,18 +1311,18 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="71.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1347,16 +1343,16 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="85.5">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
@@ -1375,7 +1371,7 @@
       <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1383,8 +1379,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="47.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
@@ -1403,7 +1399,7 @@
       <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1411,8 +1407,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="85.5">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="13" t="s">
         <v>50</v>
       </c>
@@ -1431,44 +1427,44 @@
       <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="42.75">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="171">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1489,16 +1485,16 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="156.75">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="13" t="s">
         <v>61</v>
       </c>
@@ -1517,16 +1513,16 @@
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="85.5">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="13" t="s">
         <v>64</v>
       </c>
@@ -1545,16 +1541,16 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" ht="71.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
         <v>67</v>
       </c>
@@ -1573,25 +1569,25 @@
       <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1">
       <c r="A12" s="6"/>
@@ -2386,17 +2382,17 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" s="8" customFormat="1">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2408,8 +2404,8 @@
     <mergeCell ref="A11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
